--- a/ufc/coefs.xlsx
+++ b/ufc/coefs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8663,6 +8663,5600 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Джозелин Эдвардс</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Люси Пудилова</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Гастон Боланос</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Аарон Филлипс</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2.475</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Пиера Родригес</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Джиллиан Робертсон</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Ти Джей Браун</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Билл Альгео</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Эд Херман</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Зак Каммингс</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>2.784</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Бруна Эмануэле Бразил</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Дениз Гомес</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2.256</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Лэндо Ваннато</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Даниэль Сельюбер</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Брендон Ройвал</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Матеус Николау Перейра</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>2.635</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Клэй Гуида</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Рафа Гарсия</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1.372</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Педро Муньос</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Крис Гутьеррес</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Ион Куцелаба</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Таннер Босер</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Дастин Джейкоби</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Азамат Мурзаканов</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2.235</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Эдсон Барбоса</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Билли Куарантилло</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Макс Холлоуэй</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Арнольд Аллен</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2.372</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Кароль Роза</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Норма Дюмон</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2.118</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Брэд Таварес</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Бруно Арруда да Сильва</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2.016</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Данаа Батгэрэл</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Брэди Хиестанд</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Мохаммед Усман</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Джуниор Тафа</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Присцила Кашоира</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Карин Силва</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Рани Яхя</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Монтель Джексон</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Фрэнсис Маршалл</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Уильям Гомис</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Ясмин Лусиндо</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Броган Уокер</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="D479" t="n">
+        <v>3.192</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Рик Гленн</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Кристос Гиагос</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.755</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Джеремайя Уэллс</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Мэтью Семельсбергер</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2.128</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Сун Ядонг</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Рики Саймон</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Сергей Павлович</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Кертис Блэйдес</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Бобби Грин</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Джаред Гордон</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D484" t="n">
+        <v>3.136</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Хейли Коуэн</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Джейми-Лин Хорт</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Стефани Эггер</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Ирина Алексеева</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D486" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Брайан Келлехер</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Джорни Ньюсон</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Джулиан Ероса</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Фернандо Падилья</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D488" t="n">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Коди Дюрден</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Чарльз Джонсон</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Эмили Дакот</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Поляна Виана</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Кайо Борральо</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Михал Олексейчук</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D491" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Натан Леви</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Пит Родригес</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D492" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Андре Фиалью</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Хоакин Бакли</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>2.388</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Виктория Леонардо</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Наталья Сильва</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Илир Латифи</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Родриго Насименто</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Каролина Ковалькевич</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Ванесса Демопулос</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2.115</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Майкл Джонсон</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Карлос Диего Феррейра</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Орион Коске</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Гилберт Урбина</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D498" t="n">
+        <v>2.216</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Такаши Сато</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Темба Горимбо</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.832</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Чейз Хупер</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Ник Фиоре</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Эмили Дакот</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Люпита Годинез</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Хайссер Махэшате</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Вячеслав Борщев</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Эдмен Шахбазян</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Энтони Эрнандес</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>3.068</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Маккензи Дерн</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Ангела Хилл</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.562</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Такаши Сато</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Темба Горимбо</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Виктория Леонардо</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Наталья Сильва</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Чейз Хупер</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Ник Фиоре</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Илир Латифи</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Родриго Насименто</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Орион Коске</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Гилберт Урбина</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Андре Фиалью</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Хоакин Бакли</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Каролина Ковалькевич</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Ванесса Демопулос</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D511" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Майкл Джонсон</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Карлос Диего Феррейра</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Хайссер Махэшате</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Вячеслав Борщев</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Эмили Дакот</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Люпита Годинез</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>2.308</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1.635</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Эдмен Шахбазян</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Энтони Эрнандес</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1.452</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Маккензи Дерн</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Ангела Хилл</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Джин Ю Фрей</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Элиза Рид</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D517" t="n">
+        <v>1.725</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Луан Луис Ласерда</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Да'Мон Блэкшир</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2.212</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Максим Гришин</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Филиппе Линс</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D519" t="n">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Карин Силва</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Кетлен Соуза</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D520" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Джон Кастанеда</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Муин Гафуров</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Даниэль Сантос</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Джонни Муньос-младший</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Джейми Малларки</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Мухаммадджон Наимов</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D523" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Джим Миллер</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Джесси Батлер</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D524" t="n">
+        <v>2.956</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Андрей Орловский</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Дон'Тейл Майес</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.725</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Элизеу Залески дос Сантос</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Абубакар Нурмагомедов</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>2</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Тим Эллиот</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Виктор Альтамирано</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D527" t="n">
+        <v>2.508</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Алекс Каcерес</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Даниэль Пинеда</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D528" t="n">
+        <v>2.508</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Кай Кара-Франс</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Амир Альбази</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Диана Белбице</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Мария Оливейра</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.909</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Давид Дворак</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Стивен Эрцег</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D531" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Блейк Билдер</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Кайл Нельсон</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D532" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Нассурдин Имавов</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Крис Кертис</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="D533" t="n">
+        <v>2.323</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Айеманн Захаби</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Циленг Аори</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Жасмин Ясудавичюс</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Миранда Маверик</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Эрик Андерс</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Марк-Андре Барриол</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Дэн Айдж</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Нейт Ландвер</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D537" t="n">
+        <v>3.055</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Майк Мэлотт</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Адам Фьюджитт</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D538" t="n">
+        <v>2.763</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Чарльз Оливейра</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Бенейл Дариуш</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.686</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Аманда Нуньес</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Ирэн Алдана</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D540" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Джамалл Эммерс</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Джек Дженкинс</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D541" t="n">
+        <v>2.755</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Табата Риччи</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Джиллиан Робертсон</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D542" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Матеуш Ребецки</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Лоик Раджабов</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D543" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Тревор Пик</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Джозе Марискал</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="D544" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Рэнди Браун</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Веллингтон Турман</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D545" t="n">
+        <v>2.871</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Жалгас Жумагулов</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Джошуа Ван</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D546" t="n">
+        <v>2.675</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Нил Магни</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Филип Роу</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D547" t="n">
+        <v>2.401</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Брендан Аллен</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Бруно Арруда да Сильва</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D548" t="n">
+        <v>2.721</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Дэвид Онама</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Габриэл Сантос</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>2.817</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Джастин Тафа</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Остин Лейн</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="D550" t="n">
+        <v>2.461</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Аманда Рибас</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Мейси Барбер</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D551" t="n">
+        <v>2.595</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Джош Эмметт</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Илия Топурия</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Александр Романов</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Благой Иванов</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D553" t="n">
+        <v>2.273</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Ариана Липски</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Мелисса Гатто</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>2.887</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Бенуа Сен-Дени</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Исмаэль Бонфим</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Гурам Кутателадзе</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Элвис Бреннер</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="D556" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Джоандерсон Брито</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Вестин Уилсон</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="D557" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Ивана Петрович</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Луана Каролина</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D558" t="n">
+        <v>2.695</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Кевин Ли</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Ринат Фахретдинов</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Нурсултон Рузибоев</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Брунно Феррейра</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>2.691</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Яна Куницкая</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Кароль Роза</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>2.369</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Макс Гриффин</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Майкл Моралес</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Дамир Исмагулов</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Грант Доусон</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="D563" t="n">
+        <v>2.073</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Шон Стриклэнд</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Абусупиян Магомедов</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D564" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Андреа Ли</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Наталья Сильва</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Коди Гибсон</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Брэд Катона</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Марина Мороз</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Карин Силва</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Джеральд Миршерт</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Андре Петроски</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Остин Хаббард</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Курт Холобауг</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D569" t="n">
+        <v>2.368</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Грегори Родригес</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Денис Тюлюлин</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D570" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Крис Вайдман</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Брэд Таварес</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>3.065</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.373</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Марлон Вера</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Педро Муньос</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D572" t="n">
+        <v>2.705</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Да'Мон Блэкшир</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Марио Баутиста</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Нил Магни</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Ян Гарри</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.192</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Вейли Жанг</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Аманда Лемос</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D575" t="n">
+        <v>3.385</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Алджамейн Стерлинг</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Шон О'Мэлли</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D576" t="n">
+        <v>3.045</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Сун Ву Чой</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Ярно Эрренс</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D577" t="n">
+        <v>2.324</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>На Лян</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Джей Джей Олдрич</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>0</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Юсаку Киносита</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Билли Гофф</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D579" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Кенан Сонг</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Роландо Бедойя</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>0</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Чиди Нджокуани</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Михал Олексейчук</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>1.952</v>
+      </c>
+      <c r="D581" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Тосиоми Кадзама</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Гаррет Армфилд</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>2.282</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Уолдо Кортес Акоста</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Лукаш Бжески</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D583" t="n">
+        <v>2.831</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Джуниор Тафа</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Паркер Портер</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>1.686</v>
+      </c>
+      <c r="D584" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Эрин Бланчфилд</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Тайла Сантос</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D585" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Ринья Накамура</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Ферни Гарсия</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="D586" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Гига Чикадзе</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Алекс Каcерес</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D587" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Энтони Смит</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Раян Спэнн</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Макс Холлоуэй</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Чен Сон Джон</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="D589" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Смешанные единоборства. UFC Fight Night. 26.08.23. Выступление вечера</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Кайвен Ли</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Коя Канда</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Петер Данесо</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Нямжаргал Тумэндэмбэрэл</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>0</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Рэй Цуруя</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Марк Климако</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>0</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Сын Гук Чой</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Нюшиюэ Цзи</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Чжа И</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Ким Сан Вон</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Бахатболе Батеболати</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Шин Харагучи</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>0</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Даермиси Жавупаси</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Чанг Хо Ли</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>0</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Джае Хюн Парк</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Киллан Салкиллд</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Лун Сяо</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Шуя Камикубо</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Чжу Ронг</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Ук Ким Сан</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Анжe Луcа</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Рис Макки</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>0</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Морган Шарьер</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Маноло Дзеккини</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Фарид Башарат</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Клейдсон Родригес</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>0</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Зара Фейрн Дос Сантос</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Жаклин Кавальканти</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>0</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Манон Фиорот</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Роуз Намаюнас</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="D605" t="n">
+        <v>2.157</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Нора Корноль</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Джозелин Эдвардс</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>0</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Тейлор Лапилус</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Муин Гафуров</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>0</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Уильям Гомис</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Лукас Алмейда</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>0</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Сирил Ган</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Сергей Спивак</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="D609" t="n">
+        <v>2.464</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Волкан Оэздемир</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Богдан Гуськов</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.119</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Вивиан Араужо</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Кейси О'Нил</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>0</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Джастин Тафа</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Остин Лейн</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>0</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Джейми Малларки</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Джон Макдесси</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>0</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Джек Дженкинс</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Джозе Марискал</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>0</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Карлос Ульберг</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Да Юн Юнг</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>0</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Тисон Педро</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Антон Туркаль</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>0</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Шейн Янг</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Габриэль Миранда</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>0</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Тай Туйваса</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Александр Волков</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Кай Кара-Франс</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Манел Капе</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>0</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Исраэль Адесаня</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Шон Стриклэнд</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D620" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Даниэль Сельюбер</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Кристос Гиагос</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>0</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Люпита Годинез</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Сэм Хьюз</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>0</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Трейси Кортес</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Жасмин Ясудавичюс</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>0</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Фернандо Падилья</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Кайл Нельсон</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>0</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Эдгар Чайрез</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Даниел Ласерда</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>0</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Ясмин Лусиндо</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Элиза Рид</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>0</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Фарид Башарат</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Клейдсон Родригес</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="D627" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Тейлор Лапилус</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Каолан Лофран</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D628" t="n">
+        <v>2.309</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Зара Фейрн Дос Сантос</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Жаклин Кавальканти</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Волкан Оэздемир</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Богдан Гуськов</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D630" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Морган Шарьер</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Маноло Дзеккини</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D631" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Анжe Луcа</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Рис Макки</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D632" t="n">
+        <v>2.254</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Бенуа Сен-Дени</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Тьяго Моисес</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="D633" t="n">
+        <v>2.287</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Манон Фиорот</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Роуз Намаюнас</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D634" t="n">
+        <v>2.537</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Нора Корноль</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Джозелин Эдвардс</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Уильям Гомис</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Янис Геммури</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D636" t="n">
+        <v>2.763</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Сирил Ган</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Сергей Спивак</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D637" t="n">
+        <v>2.507</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Кевин Жуссе</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Кифер Кросби</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D638" t="n">
+        <v>2.273</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Шейн Янг</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Габриэль Миранда</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Майк Матета</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Чарли Радтке</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Насрат Хакпараст</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Лэндон Квинонес</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="D641" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Джейми Малларки</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Джон Макдесси</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D642" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Джек Дженкинс</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Джозе Марискал</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="D643" t="n">
+        <v>2.815</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Карлос Ульберг</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Да Юн Юнг</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D644" t="n">
+        <v>3.345</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Тисон Педро</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Антон Туркаль</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Джастин Тафа</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Остин Лейн</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D646" t="n">
+        <v>2.763</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Манел Капе</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Фелипе дос Сантос</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="D647" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Тай Туйваса</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Александр Волков</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Исраэль Адесаня</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Шон Стриклэнд</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="D649" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Нил Магни</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Майк Мэлотт</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Брэд Катона</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Гаррет Армфилд</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D651" t="n">
+        <v>2.755</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Жасмин Ясудавичюс</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Присцила Кашоира</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D652" t="n">
+        <v>3.825</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Серхий Сидей</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Рамон Таверас</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2.401</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Чарльз Журден</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Шон Вудсон</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D654" t="n">
+        <v>2.622</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Малкольм Гордон</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Джимми Флик</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D655" t="n">
+        <v>2.562</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Йохан Лейнесс</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Сэм Паттерсон</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D656" t="n">
+        <v>2.166</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Джиллиан Робертсон</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Поляна Виана</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D657" t="n">
+        <v>3.225</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Крис Кертис</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Марк-Андре Барриол</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D658" t="n">
+        <v>2.507</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Ракель Пеннингтон</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Майра Буэно Силва</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Арнольд Аллен</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Мовсар Евлоев</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Шон Стриклэнд</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Дрикус Дю Плесси</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Блейк Билдер</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Чон Ен Ли</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1.638</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Чарльз Джонсон</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Азат Максум</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1.493</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Юлия Столяренко</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Луана Каролина</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Лэндон Квинонес</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Маркель Медерос</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1.564</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Молли Маккэнн</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Диана Белбице</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="D666" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Томас Петерсен</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Джамал Погес</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="D667" t="n">
+        <v>2.503</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Алиасхаб Хизриев</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Махмуд Мурадов</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="D668" t="n">
+        <v>2.563</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Вивиан Араужо</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Наталья Сильва</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Гилберт Урбина</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Чарли Радтке</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="D670" t="n">
+        <v>2.533</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Ренато Карнеиро</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Дрю Добер</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="D671" t="n">
+        <v>2.111</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Рэнди Браун</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Муслим Салихов</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="D672" t="n">
+        <v>2.798</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Роман Долидзе</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Нассурдин Имавов</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Маркель Медерос</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Лэндон Квинонес</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="D674" t="n">
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Блейк Билдер</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Чон Ен Ли</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1.526</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Рэнди Браун</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Муслим Салихов</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="D676" t="n">
+        <v>2.532</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Темба Горимбо</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Пит Родригес</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="D677" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Чарльз Джонсон</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Азат Максум</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1.467</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Юлия Столяренко</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Луана Каролина</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1.993</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Молли Маккэнн</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Диана Белбице</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="D680" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Гилберт Урбина</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Чарли Радтке</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="D681" t="n">
+        <v>2.697</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Томас Петерсен</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Джамал Погес</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="D682" t="n">
+        <v>2.293</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Алиасхаб Хизриев</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Махмуд Мурадов</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1.606</v>
+      </c>
+      <c r="D683" t="n">
+        <v>2.372</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Вивиан Араужо</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Наталья Сильва</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1.301</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Ренато Карнеиро</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Дрю Добер</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1.637</v>
+      </c>
+      <c r="D685" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Роман Долидзе</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Нассурдин Имавов</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Хайдер Эмил</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Ферни Гарсия</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D687" t="n">
+        <v>2.626</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Боладжи Оки</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Дамир Хадзович</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>0</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Девин Кларк</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Марцин Прахнё</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D689" t="n">
+        <v>2.755</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Джеремайя Уэллс</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Макс Гриффин</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D690" t="n">
+        <v>2.332</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Дэниел Маркос</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Циленг Аори</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D691" t="n">
+        <v>2.965</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Зак Пауга</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Богдан Гуськов</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Лома Локбонми</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Бруна Эмануэле Бразил</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D693" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Майкл Джонсон</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Дарриус Флауэрс</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="D694" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Родольфо Виейра</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Армен Петросян</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Тревин Джайлс</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Карлос Пратес</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Брэд Таварес</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Грегори Родригес</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="D697" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Игорь Потеря</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Роберт Брычек</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="D698" t="n">
+        <v>1.591</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Дэн Айдж</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Андре Фили</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D699" t="n">
+        <v>2.394</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Джек Херманссон</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Джозеф Пайфер</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="D700" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Аманда Лемос</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Маккензи Дерн</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D701" t="n">
+        <v>2.254</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Энтони Эрнандес</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Роман Копылов</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D702" t="n">
+        <v>2.277</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Мераб Двалишвили</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Генри Сехудо</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D703" t="n">
+        <v>3.075</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Роберт Уиттакер</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Пауло Энрике Коста</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D704" t="n">
+        <v>2.874</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Алекс Волкановски</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Илия Топурия</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D705" t="n">
+        <v>2.124</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Эрик Сильва</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Мухаммадджон Наимов</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Виктор Альтамирано</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Фелипе дос Сантос</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Луис Роналдо Родригес</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Денис Бондарь</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Клаудио Пуельес</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Фарес Зиам</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Эдгар Чайрез</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Даниел Ласерда</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="D710" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Хесус Сантос Агилар</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Матеуш Мендонка</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Кристиан Киньонес</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Раони Барселос</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>2.388</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Мануэль Торрес</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Крис Дункан</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Язмин Хорегуи</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Сэм Хьюз</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="D714" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Рауль Росас-младший</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Рики Турсиос</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D715" t="n">
+        <v>2.909</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Даниэль Сельюбер</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Франциско Прадо</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D716" t="n">
+        <v>3.045</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Брэндон Морено</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Брендон Ройвал</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="D717" t="n">
+        <v>3.275</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Яир Родригес</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Брайан Ортега</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D718" t="n">
+        <v>2.179</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Людовит Клейн</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Эй Джей Каннингем</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="D719" t="n">
+        <v>4.485</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Кристиан Лерой Дункан</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Клаудио Рибейро</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="D720" t="n">
+        <v>3.275</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Лоик Раджабов</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Абдул Карим Аль Селвади</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1.635</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Джавид Башарат</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Айеманн Захаби</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="D722" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Рауль Росас-младший</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Рики Турсиос</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="D723" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Эрик Андерс</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Джейми Пикетт</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D724" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Мэт Шнелль</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Стивен Эрцег</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Умар Нурмагомедов</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Бекзат Алмахан</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="D726" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Алекс Перес</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Мухаммад Мокаев</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1.263</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Витор Петрино</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Тисон Педро</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.385</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Жаирзиньо Розенструйк</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Шамиль Газиев</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Петр Ян</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Сун Ядонг</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D730" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Джоанне Калдервуд</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Марина Мороз</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>2.736</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Филиппе Линс</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Ион Куцелаба</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Карлос Вергара</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Асу Алмабаев</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Робелис Деспаигне</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Джош Парисиан</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D734" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Мичел Перейра</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Михал Олексейчук</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D735" t="n">
+        <v>2.166</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Педро Муньос</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Кайлер Филлипс</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Матеуш Гэмрот</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Рафаэль дос Анжос</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="D737" t="n">
+        <v>4.445</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Кейтлин Чукагян</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Мейси Барбер</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Кевин Холланд</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Майкл Пэйдж</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D739" t="n">
+        <v>2.166</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Гилберт Бернс</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Джек Делла Маддалена</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>2.305</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Кертис Блэйдес</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Джальтон Алмейда</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Дастин Порье</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Бенуа Сен-Дени</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>2.623</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Шон О'Мэлли</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Марлон Вера</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>1.373</v>
+      </c>
+      <c r="D743" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Брайан Баттл</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Анжe Луcа</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="D744" t="n">
+        <v>2.273</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Джеральд Миршерт</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Браян Барберена</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="D745" t="n">
+        <v>2.503</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Жозиан Нунес</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Челси Чандлер</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D746" t="n">
+        <v>2.176</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Кеннеди Нзечакву</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Овинс Сен-Пре</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="D747" t="n">
+        <v>4.325</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Кори МакКенна</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Жаклин Аморим</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1.825</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Кристиан Родригес</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Айзек Дулгарян</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1.775</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Майк Дэвис</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Натан Леви</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="D750" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Од Осборн</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Джафель Филью</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1.594</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Пэнни Кианзад</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Мэйси Чиассон</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1.584</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Чад Анхелигер</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Харалампос Григориу</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1.483</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Джошуа Кулибао</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Дэнни Сильва</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="D754" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Тай Туйваса</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Марчин Тыбура</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D755" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Майлз Джонс</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Коди Гибсон</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D756" t="n">
+        <v>2.169</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Мохаммед Усман</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Майкл Паркин</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Игорь да Силва Северино</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Андре Луис Лима Кардосо</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>2.408</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Монтсеррат Рендон</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Дарья Железнякова</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>2.725</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Стивен Нгуен</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Ярно Эрренс</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D760" t="n">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Рикардо Лукас Рамос</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Джулиан Ероса</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D761" t="n">
+        <v>2.332</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Трей Огден</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Курт Холобауг</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>1.686</v>
+      </c>
+      <c r="D762" t="n">
+        <v>2.148</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Билли Куарантилло</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Юсеф Залал</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D763" t="n">
+        <v>2.161</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Карл Уильямс</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Джастин Тафа</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="D764" t="n">
+        <v>2.461</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Эдмен Шахбазян</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>ЭйДжей Добсон</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="D765" t="n">
+        <v>2.461</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Луис Пахуэло</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Фернандо Падилья</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="D766" t="n">
+        <v>1.635</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Пэйтон Толбот</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Кэмерон Саайман</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D767" t="n">
+        <v>2.229</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Аманда Рибас</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Роуз Намаюнас</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>2.998</v>
+      </c>
+      <c r="D768" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
